--- a/Brembana profile/3222/ТО ЧПУ Brembana profile 3222 на 2022 год.xlsx
+++ b/Brembana profile/3222/ТО ЧПУ Brembana profile 3222 на 2022 год.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="114">
   <si>
     <t xml:space="preserve">Плановое техобслуживание ЧПУ Brembana profile 3222 инв.№55550255 для операторов</t>
   </si>
@@ -259,8 +259,26 @@
     <t xml:space="preserve">Смазка нижних штоков присосов.</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка кожухов и проверка изнашивания:                                                  Для предотвращения забивания кожухов, монтированных на обрабатывающем центре, необходимо произвести ежедневную очистку при использовании сначала сжатого воздуха, а затем ветоши.
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Чистка кожухов и проверка изнашивания:                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Для предотвращения забивания кожухов, монтированных на обрабатывающем центре, необходимо произвести ежедневную очистку при использовании сначала сжатого воздуха, а затем ветоши.
 Проверять состояние изнашивая кожухов: в случае наличия проколов, разрывов, повреждений и т.д., незамедлительно предупредить службу механиков для замены.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">1 раз в неделю</t>
@@ -291,6 +309,15 @@
   </si>
   <si>
     <t xml:space="preserve">Слесарный инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чистка баков, шлангов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка оборудования от пыли, лишних предметов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 раз в месяц</t>
   </si>
   <si>
     <t xml:space="preserve">Чистка и техобслуживание рециркуляционных баков для воды.         </t>
@@ -467,9 +494,6 @@
     <t xml:space="preserve">Заправка насоса Централизованной системы смазки.</t>
   </si>
   <si>
-    <t xml:space="preserve">1 раз в месяц</t>
-  </si>
-  <si>
     <t xml:space="preserve">Масло Mobil oil EP0</t>
   </si>
   <si>
@@ -593,7 +617,10 @@
     <t xml:space="preserve">Чистка шлангов вакуумного насоса</t>
   </si>
   <si>
-    <t xml:space="preserve">Чистка баков, поддонов, уборка оборудования от пыли, лишних предметов за оборудованием</t>
+    <t xml:space="preserve">Чистка баков, поддонов, шлангов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка оборудования от пыли, лишних предметов за оборудованием</t>
   </si>
   <si>
     <t xml:space="preserve">Чистка и техобслуживание рециркуляционных баков для воды (по мере необходимости)</t>
@@ -657,9 +684,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -768,7 +796,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -817,6 +845,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -861,7 +893,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,14 +1039,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>852480</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4209120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>344520</xdr:rowOff>
+      <xdr:colOff>4208760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>348120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1027,8 +1059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15760440" y="16552800"/>
-          <a:ext cx="3356640" cy="2756160"/>
+          <a:off x="15760440" y="17890200"/>
+          <a:ext cx="3356280" cy="2755800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,15 +1075,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>33840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3442320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5028840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:colOff>5062320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5913000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,8 +1096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="11755800"/>
-          <a:ext cx="5028840" cy="2471040"/>
+          <a:off x="14941800" y="12442680"/>
+          <a:ext cx="5028480" cy="2470680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,19 +1112,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>728280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5082840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2319120</xdr:rowOff>
+      <xdr:colOff>4084560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2755440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Изображение 13" descr=""/>
+        <xdr:cNvPr id="2" name="Изображение 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1101,8 +1133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="14163120"/>
-          <a:ext cx="5082840" cy="2319120"/>
+          <a:off x="15636240" y="39081240"/>
+          <a:ext cx="3356280" cy="2755800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,20 +1148,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>728280</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2570400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6447960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4084920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2755800</xdr:rowOff>
+      <xdr:colOff>5042880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8766720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Изображение 14" descr=""/>
+        <xdr:cNvPr id="3" name="Изображение 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1138,8 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15636240" y="37747800"/>
-          <a:ext cx="3356640" cy="2756160"/>
+          <a:off x="14868360" y="15448320"/>
+          <a:ext cx="5082480" cy="2318760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,14 +1187,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4713120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4061160</xdr:rowOff>
+      <xdr:colOff>4712760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4060800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="40547160"/>
-          <a:ext cx="4713120" cy="4061160"/>
+          <a:off x="14907960" y="41880960"/>
+          <a:ext cx="4712760" cy="4060800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,14 +1224,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>807120</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>58680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4273200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:colOff>4272840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1212,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15715080" y="19023120"/>
-          <a:ext cx="3466080" cy="4386600"/>
+          <a:off x="15715080" y="20356560"/>
+          <a:ext cx="3465720" cy="4386240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,19 +1260,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5074200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2343600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2410920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="6" name="Изображение 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1249,8 +1281,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="9000360"/>
-          <a:ext cx="5074200" cy="2343600"/>
+          <a:off x="14938560" y="24773760"/>
+          <a:ext cx="5084280" cy="2352600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,19 +1297,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2411280</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5074920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2344320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Изображение 20" descr=""/>
+        <xdr:cNvPr id="7" name="Изображение 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1286,8 +1318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14938560" y="23440320"/>
-          <a:ext cx="5084640" cy="2352960"/>
+          <a:off x="14907960" y="1474560"/>
+          <a:ext cx="5074920" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,18 +1335,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5075280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2344680</xdr:rowOff>
+      <xdr:colOff>2344320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5074920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Изображение 1" descr=""/>
+        <xdr:cNvPr id="8" name="Изображение 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1323,8 +1355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="1474560"/>
-          <a:ext cx="5075280" cy="2344680"/>
+          <a:off x="14907960" y="3898800"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,19 +1371,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2457000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2408400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2344680</xdr:colOff>
+      <xdr:colOff>4801320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5075280</xdr:rowOff>
+      <xdr:rowOff>5059080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Изображение 2" descr=""/>
+        <xdr:cNvPr id="9" name="Изображение 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1360,8 +1392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="3898800"/>
-          <a:ext cx="2344680" cy="5075280"/>
+          <a:off x="17364960" y="3882960"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1376,19 +1408,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2457000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2408400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4801680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5059440</xdr:rowOff>
+      <xdr:colOff>5065560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3889440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Изображение 3" descr=""/>
+        <xdr:cNvPr id="10" name="Изображение 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1397,8 +1429,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17364960" y="3882960"/>
-          <a:ext cx="2344680" cy="5075280"/>
+          <a:off x="14907960" y="27208440"/>
+          <a:ext cx="5065560" cy="3889440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,13 +1451,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5065920</xdr:colOff>
+      <xdr:colOff>5097600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3889800</xdr:rowOff>
+      <xdr:rowOff>2359440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Изображение 6" descr=""/>
+        <xdr:cNvPr id="11" name="Изображение 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1434,8 +1466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="25875000"/>
-          <a:ext cx="5065920" cy="3889800"/>
+          <a:off x="14907960" y="36649800"/>
+          <a:ext cx="5097600" cy="2359440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1450,19 +1482,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>157680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2403000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097960</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2359800</xdr:rowOff>
+      <xdr:colOff>4948200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1747440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Изображение 9" descr=""/>
+        <xdr:cNvPr id="12" name="Изображение 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1471,8 +1503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="35316000"/>
-          <a:ext cx="5097960" cy="2359800"/>
+          <a:off x="15065640" y="55651680"/>
+          <a:ext cx="4790520" cy="1760400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,19 +1519,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1114200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3805200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1760760</xdr:rowOff>
+      <xdr:colOff>3458520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5082840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Изображение 16" descr=""/>
+        <xdr:cNvPr id="13" name="Изображение 27" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1508,8 +1540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="44674920"/>
-          <a:ext cx="3805200" cy="1760760"/>
+          <a:off x="16022160" y="31561200"/>
+          <a:ext cx="2344320" cy="5074920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,19 +1556,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1114200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>39240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3458880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>5083200</xdr:rowOff>
+      <xdr:colOff>5034960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2826000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Изображение 27" descr=""/>
+        <xdr:cNvPr id="14" name="Изображение 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1545,8 +1577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16022160" y="30227400"/>
-          <a:ext cx="2344680" cy="5075280"/>
+          <a:off x="14947200" y="9116280"/>
+          <a:ext cx="4995720" cy="2710080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,20 +1592,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2530440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4829040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4996080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2710440</xdr:rowOff>
+      <xdr:colOff>4996440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7174080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Изображение 11" descr=""/>
+        <xdr:cNvPr id="15" name="Изображение 43" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1582,8 +1614,119 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14907960" y="9000360"/>
-          <a:ext cx="4996080" cy="2710440"/>
+          <a:off x="14828400" y="50837400"/>
+          <a:ext cx="5076000" cy="2345040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2549880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5015880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2345040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Изображение 44" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14847840" y="46008360"/>
+          <a:ext cx="5076000" cy="2345040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2574360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2386800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5040360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4731840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Изображение 45" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14872320" y="48395160"/>
+          <a:ext cx="5076000" cy="2345040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2549880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5015880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2345040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Изображение 46" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14847840" y="53248680"/>
+          <a:ext cx="5076000" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,13 +1752,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3621960</xdr:colOff>
+      <xdr:colOff>3621600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2572560</xdr:rowOff>
+      <xdr:rowOff>2572200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Изображение 4" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1625,7 +1768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12509640" y="1432080"/>
-          <a:ext cx="2043360" cy="2586240"/>
+          <a:ext cx="2043000" cy="2585880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1646,13 +1789,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4396320</xdr:colOff>
+      <xdr:colOff>4395960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2624400</xdr:rowOff>
+      <xdr:rowOff>2624040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Изображение 5" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1662,7 +1805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10931040" y="4059720"/>
-          <a:ext cx="4396320" cy="2624400"/>
+          <a:ext cx="4395960" cy="2624040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,13 +1826,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4067640</xdr:colOff>
+      <xdr:colOff>4067280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2752920</xdr:rowOff>
+      <xdr:rowOff>2752560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 21" descr=""/>
+        <xdr:cNvPr id="21" name="Изображение 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1699,7 +1842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11642040" y="7468200"/>
-          <a:ext cx="3356640" cy="2756160"/>
+          <a:ext cx="3356280" cy="2755800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,13 +1863,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2349360</xdr:rowOff>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="22" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1736,7 +1879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10964160" y="23272920"/>
-          <a:ext cx="5074200" cy="2343600"/>
+          <a:ext cx="5073840" cy="2343240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,13 +1900,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4744800</xdr:colOff>
+      <xdr:colOff>4744440</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2837160</xdr:rowOff>
+      <xdr:rowOff>2836800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 22" descr=""/>
+        <xdr:cNvPr id="23" name="Изображение 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1773,7 +1916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11510640" y="25775280"/>
-          <a:ext cx="4165200" cy="2824560"/>
+          <a:ext cx="4164840" cy="2824200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1794,13 +1937,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4002480</xdr:colOff>
+      <xdr:colOff>4002120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2865600</xdr:rowOff>
+      <xdr:rowOff>2865240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="24" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1810,7 +1953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11532960" y="33571080"/>
-          <a:ext cx="3400560" cy="2828160"/>
+          <a:ext cx="3400200" cy="2827800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,13 +1974,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2594520</xdr:rowOff>
+      <xdr:rowOff>2594160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="25" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1847,7 +1990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10942200" y="20795400"/>
-          <a:ext cx="5097960" cy="2359800"/>
+          <a:ext cx="5097600" cy="2359440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,13 +2011,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3526200</xdr:colOff>
+      <xdr:colOff>3525840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>5075280</xdr:rowOff>
+      <xdr:rowOff>5074920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Изображение 24" descr=""/>
+        <xdr:cNvPr id="26" name="Изображение 24" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1884,6 +2027,117 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12112560" y="10240560"/>
+          <a:ext cx="2344320" cy="5074920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5074920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2344320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Изображение 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10931040" y="28668960"/>
+          <a:ext cx="5074920" cy="2344320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2439720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5096880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4784040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Изображение 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953000" y="31108680"/>
+          <a:ext cx="5074920" cy="2344320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>919080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3263760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5085720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Изображение 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11850120" y="15411240"/>
           <a:ext cx="2344680" cy="5075280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1899,29 +2153,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5075280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2344680</xdr:rowOff>
+      <xdr:colOff>5059800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1940400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Изображение 10" descr=""/>
+        <xdr:cNvPr id="30" name="Изображение 29" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931040" y="28668960"/>
-          <a:ext cx="5075280" cy="2344680"/>
+          <a:off x="10941840" y="39609000"/>
+          <a:ext cx="5049000" cy="1929960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,29 +2190,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2439720</xdr:rowOff>
+      <xdr:colOff>87120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4784400</xdr:rowOff>
+      <xdr:colOff>2412360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3597120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Изображение 26" descr=""/>
+        <xdr:cNvPr id="31" name="Изображение 30" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10953000" y="31108680"/>
-          <a:ext cx="5075280" cy="2344680"/>
+          <a:off x="11018160" y="49049640"/>
+          <a:ext cx="2325240" cy="3555000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1973,130 +2227,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>919080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3264120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5086080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Изображение 25" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11850120" y="15411240"/>
-          <a:ext cx="2345040" cy="5075640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5060160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1940760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Изображение 29" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10941840" y="39609000"/>
-          <a:ext cx="5049360" cy="1930320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3597480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Изображение 30" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11018160" y="49049640"/>
-          <a:ext cx="2325600" cy="3555360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>2548800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4892760</xdr:colOff>
+      <xdr:colOff>4892400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>3576240</xdr:rowOff>
+      <xdr:rowOff>3575880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Изображение 31" descr=""/>
+        <xdr:cNvPr id="32" name="Изображение 31" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2106,7 +2249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13479840" y="49102560"/>
-          <a:ext cx="2343960" cy="3481200"/>
+          <a:ext cx="2343600" cy="3480840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,13 +2270,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5026320</xdr:colOff>
+      <xdr:colOff>5025960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1856160</xdr:rowOff>
+      <xdr:rowOff>1855800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Изображение 32" descr=""/>
+        <xdr:cNvPr id="33" name="Изображение 32" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2143,7 +2286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10920600" y="41569200"/>
-          <a:ext cx="5036760" cy="1854720"/>
+          <a:ext cx="5036400" cy="1854360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2164,13 +2307,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3353040</xdr:colOff>
+      <xdr:colOff>3352680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>3124080</xdr:rowOff>
+      <xdr:rowOff>3123720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Изображение 34" descr=""/>
+        <xdr:cNvPr id="34" name="Изображение 34" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2180,7 +2323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11939040" y="36449640"/>
-          <a:ext cx="2345040" cy="3103920"/>
+          <a:ext cx="2344680" cy="3103560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2201,13 +2344,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4701240</xdr:colOff>
+      <xdr:colOff>4700880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2688120</xdr:rowOff>
+      <xdr:rowOff>2687760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Изображение 36" descr=""/>
+        <xdr:cNvPr id="35" name="Изображение 36" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2217,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11289960" y="52780680"/>
-          <a:ext cx="4342320" cy="2684160"/>
+          <a:ext cx="4341960" cy="2683800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2238,13 +2381,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4187880</xdr:colOff>
+      <xdr:colOff>4187520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>2875320</xdr:rowOff>
+      <xdr:rowOff>2874960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Изображение 15" descr=""/>
+        <xdr:cNvPr id="36" name="Изображение 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2254,7 +2397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11719080" y="60679800"/>
-          <a:ext cx="3399840" cy="2764440"/>
+          <a:ext cx="3399480" cy="2764080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2275,13 +2418,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5086440</xdr:colOff>
+      <xdr:colOff>5086080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2265480</xdr:rowOff>
+      <xdr:rowOff>2265120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Изображение 37" descr=""/>
+        <xdr:cNvPr id="37" name="Изображение 37" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2291,7 +2434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10920240" y="55621440"/>
-          <a:ext cx="5097240" cy="2176200"/>
+          <a:ext cx="5096880" cy="2175840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,13 +2455,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4831920</xdr:colOff>
+      <xdr:colOff>4831560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>3278520</xdr:rowOff>
+      <xdr:rowOff>3278160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Изображение 40" descr=""/>
+        <xdr:cNvPr id="38" name="Изображение 40" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2328,7 +2471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11606400" y="67696560"/>
-          <a:ext cx="4156560" cy="3278520"/>
+          <a:ext cx="4156200" cy="3278160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2349,13 +2492,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5097600</xdr:colOff>
+      <xdr:colOff>5097240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>1994040</xdr:rowOff>
+      <xdr:rowOff>1993680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Изображение 41" descr=""/>
+        <xdr:cNvPr id="39" name="Изображение 41" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2365,7 +2508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10953000" y="63567000"/>
-          <a:ext cx="5075640" cy="1986120"/>
+          <a:ext cx="5075280" cy="1985760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,13 +2529,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5064840</xdr:colOff>
+      <xdr:colOff>5064480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>2026080</xdr:rowOff>
+      <xdr:rowOff>2025720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Изображение 42" descr=""/>
+        <xdr:cNvPr id="40" name="Изображение 42" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2402,7 +2545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10920240" y="65652480"/>
-          <a:ext cx="5075640" cy="1996560"/>
+          <a:ext cx="5075280" cy="1996200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,13 +2566,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3943440</xdr:colOff>
+      <xdr:colOff>3943080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2468160</xdr:rowOff>
+      <xdr:rowOff>2467800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Изображение 35" descr=""/>
+        <xdr:cNvPr id="41" name="Изображение 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2439,7 +2582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12302640" y="43497360"/>
-          <a:ext cx="2571840" cy="2444040"/>
+          <a:ext cx="2571480" cy="2443680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2460,13 +2603,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4626360</xdr:colOff>
+      <xdr:colOff>4626000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2899080</xdr:rowOff>
+      <xdr:rowOff>2898720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Изображение 38" descr=""/>
+        <xdr:cNvPr id="42" name="Изображение 38" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2476,7 +2619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11822400" y="46050840"/>
-          <a:ext cx="3735000" cy="2860920"/>
+          <a:ext cx="3734640" cy="2860560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,13 +2640,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4257360</xdr:colOff>
+      <xdr:colOff>4257000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>2526840</xdr:rowOff>
+      <xdr:rowOff>2526480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Изображение 33" descr=""/>
+        <xdr:cNvPr id="43" name="Изображение 33" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2513,7 +2656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11723040" y="57986640"/>
-          <a:ext cx="3465360" cy="2498040"/>
+          <a:ext cx="3465000" cy="2497680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2535,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="65" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A15" colorId="64" zoomScale="50" zoomScaleNormal="65" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2606,8 +2749,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="216.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="700" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
@@ -2622,81 +2765,93 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="189.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="188.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="347.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="189.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="196.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="347.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="342.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="196.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="401.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="342.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="191.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
@@ -2706,80 +2861,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="401.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="220.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="191.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="325" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
         <f aca="false">A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="220.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="570.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
         <f aca="false">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="325" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="190.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
         <f aca="false">A15+1</f>
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="144.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="12" t="n">
         <f aca="false">A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
+      <c r="B17" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
@@ -2796,11 +2951,8 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.540972222222222" right="0.44375" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2827,12 +2979,12 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="65" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A15:A17 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="105.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="72.25"/>
@@ -2843,7 +2995,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2871,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>25</v>
@@ -2886,15 +3038,15 @@
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>33</v>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="218.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2903,14 +3055,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="406.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2918,15 +3070,15 @@
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="406.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2934,15 +3086,15 @@
         <f aca="false">A7+1</f>
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>39</v>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="213.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2951,14 +3103,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2966,24 +3118,24 @@
         <f aca="false">A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>43</v>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="228.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="228.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <f aca="false">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>44</v>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
@@ -2998,31 +3150,31 @@
         <f aca="false">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>45</v>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="228" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" s="16" customFormat="true" ht="228" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <f aca="false">A12+1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>47</v>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="249.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3031,14 +3183,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="155.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3047,10 +3199,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
@@ -3063,14 +3215,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="199.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3079,30 +3231,30 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="true" ht="235.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="18" customFormat="true" ht="235.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <f aca="false">A17+1</f>
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="296.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3111,14 +3263,14 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="216.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3127,14 +3279,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="191" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3143,14 +3295,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="205.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3159,14 +3311,14 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="235.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3175,14 +3327,14 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="D23" s="17"/>
       <c r="E23" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="162.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3191,14 +3343,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="163.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3207,10 +3359,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
@@ -3223,10 +3375,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
@@ -3235,66 +3387,66 @@
     </row>
     <row r="27" customFormat="false" ht="226.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="190" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="224.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="224.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="311.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="224.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
@@ -3331,10 +3483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="U18" activeCellId="1" sqref="A15:A17 U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3384,50 +3536,50 @@
       <c r="AG1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20" t="s">
-        <v>73</v>
+      <c r="B2" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -3438,10 +3590,10 @@
       <c r="D4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="25" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="8" t="n">
@@ -3459,10 +3611,10 @@
       <c r="K4" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="24" t="n">
+      <c r="L4" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="24" t="n">
+      <c r="M4" s="25" t="n">
         <v>11</v>
       </c>
       <c r="N4" s="8" t="n">
@@ -3480,10 +3632,10 @@
       <c r="R4" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="24" t="n">
+      <c r="S4" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="24" t="n">
+      <c r="T4" s="25" t="n">
         <v>18</v>
       </c>
       <c r="U4" s="8" t="n">
@@ -3501,10 +3653,10 @@
       <c r="Y4" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="24" t="n">
+      <c r="Z4" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="24" t="n">
+      <c r="AA4" s="25" t="n">
         <v>25</v>
       </c>
       <c r="AB4" s="8" t="n">
@@ -3522,7 +3674,7 @@
       <c r="AF4" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="25" t="n">
+      <c r="AG4" s="26" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3531,1243 +3683,1284 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
       <c r="AB5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
       <c r="AB6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
       <c r="AB7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG7" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
       <c r="AB8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG8" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="107.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
       <c r="AB9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG9" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>83</v>
+      <c r="B10" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
       <c r="AB10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG10" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
       <c r="AB11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG11" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
       <c r="AB12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG12" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
       <c r="AB13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
       <c r="AB14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG14" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>88</v>
+      <c r="B15" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
       <c r="U15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
       <c r="AB15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="AG15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>89</v>
+      <c r="B16" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
       <c r="U16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
       <c r="AB16" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="25"/>
+      <c r="AG16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>90</v>
+      <c r="B17" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
       <c r="U17" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
       <c r="AB17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="26"/>
-    </row>
-    <row r="18" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
+      <c r="B18" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
       <c r="U18" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
       <c r="AB18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="26"/>
-    </row>
-    <row r="19" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>92</v>
+      <c r="B19" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="10"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="25"/>
-    </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="27"/>
+    </row>
+    <row r="20" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="25"/>
-    </row>
-    <row r="21" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="AG20" s="26"/>
+    </row>
+    <row r="21" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="25"/>
+      <c r="AG21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="25"/>
+      <c r="AG22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="25"/>
-    </row>
-    <row r="45" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="29"/>
-      <c r="C45" s="3"/>
+      <c r="AG23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="26"/>
+    </row>
+    <row r="46" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="30"/>
+      <c r="C46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4775,10 +4968,10 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.461805555555556" bottom="0.461805555555556" header="0.196527777777778" footer="0.196527777777778"/>
@@ -4798,7 +4991,7 @@
   <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ14" activeCellId="0" sqref="AJ14"/>
+      <selection pane="topLeft" activeCell="AJ14" activeCellId="1" sqref="A15:A17 AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4812,7 +5005,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4848,50 +5041,50 @@
       <c r="AG1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20" t="s">
-        <v>73</v>
+      <c r="B2" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -4902,10 +5095,10 @@
       <c r="D4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="31" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="8" t="n">
@@ -4923,10 +5116,10 @@
       <c r="K4" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="30" t="n">
+      <c r="L4" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="M4" s="30" t="n">
+      <c r="M4" s="31" t="n">
         <v>11</v>
       </c>
       <c r="N4" s="8" t="n">
@@ -4944,10 +5137,10 @@
       <c r="R4" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="S4" s="30" t="n">
+      <c r="S4" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="T4" s="30" t="n">
+      <c r="T4" s="31" t="n">
         <v>18</v>
       </c>
       <c r="U4" s="8" t="n">
@@ -4965,10 +5158,10 @@
       <c r="Y4" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="Z4" s="30" t="n">
+      <c r="Z4" s="31" t="n">
         <v>24</v>
       </c>
-      <c r="AA4" s="30" t="n">
+      <c r="AA4" s="31" t="n">
         <v>25</v>
       </c>
       <c r="AB4" s="8" t="n">
@@ -4986,7 +5179,7 @@
       <c r="AF4" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="AG4" s="31" t="n">
+      <c r="AG4" s="32" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4995,47 +5188,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
       <c r="U5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
       <c r="AB5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="32"/>
+      <c r="AG5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
@@ -5043,47 +5236,47 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
       <c r="U6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
       <c r="AB6" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="32"/>
+      <c r="AG6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
@@ -5091,47 +5284,47 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
       <c r="U7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="32"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
@@ -5139,47 +5332,47 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
       <c r="U8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
       <c r="AB8" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="32"/>
+      <c r="AG8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
@@ -5187,47 +5380,47 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
       <c r="U9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="32"/>
+      <c r="AG9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
@@ -5235,47 +5428,47 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
       <c r="U10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="32"/>
+      <c r="AG10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
@@ -5283,47 +5476,47 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
       <c r="U11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="32"/>
+      <c r="AG11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
@@ -5331,221 +5524,221 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
       <c r="U12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="32"/>
+      <c r="AG12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <f aca="false">A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>104</v>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
       <c r="U13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
       <c r="AB13" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="32"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <f aca="false">A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>105</v>
+      <c r="B14" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
         <f aca="false">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>106</v>
+      <c r="B15" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
         <f aca="false">A15+1</f>
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>52</v>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
@@ -5553,41 +5746,41 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
@@ -5595,161 +5788,161 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="32"/>
+        <v>80</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
         <f aca="false">A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="32"/>
-    </row>
-    <row r="20" s="37" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="33"/>
+    </row>
+    <row r="20" s="38" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
         <f aca="false">A19+1</f>
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="B20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="36"/>
-    </row>
-    <row r="21" s="37" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="37"/>
+    </row>
+    <row r="21" s="38" customFormat="true" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
         <f aca="false">A20+1</f>
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
+      <c r="B21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
@@ -5757,39 +5950,39 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="32"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
@@ -5797,277 +5990,277 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="32"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
         <f aca="false">A23+1</f>
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>109</v>
+      <c r="B24" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="32"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
         <f aca="false">A24+1</f>
         <v>21</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>67</v>
+      <c r="B25" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="32"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
         <f aca="false">A25+1</f>
         <v>22</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>69</v>
+      <c r="B26" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="28"/>
-      <c r="AG26" s="32"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
         <f aca="false">A26+1</f>
         <v>23</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>71</v>
+      <c r="B27" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="32"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="32"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="10"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="32"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="39"/>
+      <c r="B30" s="40"/>
     </row>
     <row r="57" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="29"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="3"/>
     </row>
   </sheetData>
